--- a/quizes.xlsx
+++ b/quizes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\economic_quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\quiza\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Term</t>
   </si>
@@ -153,6 +153,63 @@
   </si>
   <si>
     <t>A method of production where a business, area or economy focuses on the production of a limited scope of products or services to gain greater degrees of productive efficiency within an overall system.</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>An asset on item that is purchased with the hope that it will generate income or will appreciate in the future.</t>
+  </si>
+  <si>
+    <t>Standard of Living</t>
+  </si>
+  <si>
+    <t>Quality of life based on ownership of necessities and luxuries that make life easier.</t>
+  </si>
+  <si>
+    <t>Production Possibilities Curve</t>
+  </si>
+  <si>
+    <t>Diagram representing maximum combinations of goods and/or services an economy can produce when all productive resources are fully employed.</t>
+  </si>
+  <si>
+    <t>Trade-Off</t>
+  </si>
+  <si>
+    <t>Alternatives that must be given up when one is chosen rather that another.</t>
+  </si>
+  <si>
+    <t>Consumer Sovereinty</t>
+  </si>
+  <si>
+    <t>Free enterprise system</t>
+  </si>
+  <si>
+    <t>Refers to the summary or conglomeration of all voluntary business activites in a given economic area. Could refer to an ideological or legal system of organization in which commercial activites are primarily regulated through private measures rather than by political means.</t>
+  </si>
+  <si>
+    <t>Shortage</t>
+  </si>
+  <si>
+    <t>Situation where quantity supplied is less than quantity demanded at a given price.</t>
+  </si>
+  <si>
+    <t>Surplus</t>
+  </si>
+  <si>
+    <t>Situation where quantity supplied is greater than quantity demanded at a given price.</t>
+  </si>
+  <si>
+    <t>Factor of Production</t>
+  </si>
+  <si>
+    <t>Productive resources that make up the four categories of land, capital, labor, and entrepreneurship.</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>The struggle among sellers to attract consumers while lowering costs.</t>
   </si>
 </sst>
 </file>
@@ -470,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,6 +769,116 @@
         <v>42</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
